--- a/example_data/EMA/label_corrected/adcirca-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/adcirca-epar-product-information_en.xlsx
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric || populations - adult</t>
+          <t>populations - pediatric || populations - adult || populations - adolescent</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric</t>
+          <t>populations - pediatric || populations - adolescent</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
